--- a/forecast_IT/df_DA_IT_2025-10-29.xlsx
+++ b/forecast_IT/df_DA_IT_2025-10-29.xlsx
@@ -414,13 +414,13 @@
         <v>45959</v>
       </c>
       <c r="B2">
-        <v>25224</v>
+        <v>25217</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4144</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +428,13 @@
         <v>45959.04166666666</v>
       </c>
       <c r="B3">
-        <v>24000</v>
+        <v>23920</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4363</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +442,13 @@
         <v>45959.08333333334</v>
       </c>
       <c r="B4">
-        <v>23186</v>
+        <v>23123</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4630</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +456,13 @@
         <v>45959.125</v>
       </c>
       <c r="B5">
-        <v>22965</v>
+        <v>22966</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4795</v>
+        <v>2031.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +470,13 @@
         <v>45959.16666666666</v>
       </c>
       <c r="B6">
-        <v>23302</v>
+        <v>23289</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4763</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +484,13 @@
         <v>45959.20833333334</v>
       </c>
       <c r="B7">
-        <v>24920</v>
+        <v>24770</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4556</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +498,13 @@
         <v>45959.25</v>
       </c>
       <c r="B8">
-        <v>30111</v>
+        <v>29927</v>
       </c>
       <c r="C8">
-        <v>446</v>
+        <v>229</v>
       </c>
       <c r="D8">
-        <v>4237</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +512,13 @@
         <v>45959.29166666666</v>
       </c>
       <c r="B9">
-        <v>35011</v>
+        <v>34860</v>
       </c>
       <c r="C9">
-        <v>4214</v>
+        <v>2139</v>
       </c>
       <c r="D9">
-        <v>3843</v>
+        <v>1826.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +526,13 @@
         <v>45959.33333333334</v>
       </c>
       <c r="B10">
-        <v>38240</v>
+        <v>38009</v>
       </c>
       <c r="C10">
-        <v>11106</v>
+        <v>5590</v>
       </c>
       <c r="D10">
-        <v>3630</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +540,13 @@
         <v>45959.375</v>
       </c>
       <c r="B11">
-        <v>38803</v>
+        <v>38538</v>
       </c>
       <c r="C11">
-        <v>17048</v>
+        <v>8582</v>
       </c>
       <c r="D11">
-        <v>3714</v>
+        <v>1703.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +554,13 @@
         <v>45959.41666666666</v>
       </c>
       <c r="B12">
-        <v>38292</v>
+        <v>38173</v>
       </c>
       <c r="C12">
-        <v>20642</v>
+        <v>10384</v>
       </c>
       <c r="D12">
-        <v>3972</v>
+        <v>1862.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +568,13 @@
         <v>45959.45833333334</v>
       </c>
       <c r="B13">
-        <v>37968</v>
+        <v>37920</v>
       </c>
       <c r="C13">
-        <v>21802</v>
+        <v>10970</v>
       </c>
       <c r="D13">
-        <v>4367</v>
+        <v>2063.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +582,13 @@
         <v>45959.5</v>
       </c>
       <c r="B14">
-        <v>36355</v>
+        <v>36343</v>
       </c>
       <c r="C14">
-        <v>20790</v>
+        <v>10639</v>
       </c>
       <c r="D14">
-        <v>4747</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +596,13 @@
         <v>45959.54166666666</v>
       </c>
       <c r="B15">
-        <v>36216</v>
+        <v>36267</v>
       </c>
       <c r="C15">
-        <v>18036</v>
+        <v>9289</v>
       </c>
       <c r="D15">
-        <v>5097</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +610,13 @@
         <v>45959.58333333334</v>
       </c>
       <c r="B16">
-        <v>37244</v>
+        <v>37320</v>
       </c>
       <c r="C16">
-        <v>13244</v>
+        <v>6815</v>
       </c>
       <c r="D16">
-        <v>5260</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +624,13 @@
         <v>45959.625</v>
       </c>
       <c r="B17">
-        <v>37838</v>
+        <v>37901</v>
       </c>
       <c r="C17">
-        <v>6788</v>
+        <v>3576</v>
       </c>
       <c r="D17">
-        <v>5170</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +638,13 @@
         <v>45959.66666666666</v>
       </c>
       <c r="B18">
-        <v>38394</v>
+        <v>38499</v>
       </c>
       <c r="C18">
-        <v>1644</v>
+        <v>898</v>
       </c>
       <c r="D18">
-        <v>5019</v>
+        <v>2456.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +652,13 @@
         <v>45959.70833333334</v>
       </c>
       <c r="B19">
-        <v>39442</v>
+        <v>39551</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>4891</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +666,13 @@
         <v>45959.75</v>
       </c>
       <c r="B20">
-        <v>39289</v>
+        <v>39337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4816</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +680,13 @@
         <v>45959.79166666666</v>
       </c>
       <c r="B21">
-        <v>38839</v>
+        <v>39005</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4947</v>
+        <v>2517.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +694,13 @@
         <v>45959.83333333334</v>
       </c>
       <c r="B22">
-        <v>36730</v>
+        <v>36911</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5284</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +708,13 @@
         <v>45959.875</v>
       </c>
       <c r="B23">
-        <v>33876</v>
+        <v>33958</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5753</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +722,13 @@
         <v>45959.91666666666</v>
       </c>
       <c r="B24">
-        <v>30402</v>
+        <v>30490</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6175</v>
+        <v>3039.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +736,13 @@
         <v>45959.95833333334</v>
       </c>
       <c r="B25">
-        <v>27564</v>
+        <v>27615</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6494</v>
+        <v>3276.5</v>
       </c>
     </row>
   </sheetData>
